--- a/Project 5 - Inferential Analysis/covid who data.xlsx
+++ b/Project 5 - Inferential Analysis/covid who data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faith Kabanda\OneDrive\Documents\Data Analysis Portfolio By Faith Kabanda\Data-Analyst-Portfolio-By-Faith-Kabanda\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faith Kabanda\OneDrive\Documents\Data Analysis Portfolio By Faith Kabanda\Data-Analyst-Portfolio-By-Faith-Kabanda\Project 5 - Inferential Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D201DE-BE60-4AC8-96A7-BA4DEA5632A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB2E2C1-001A-4907-A8EF-DBD5E9E723B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,8 +23,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WHO-COVID-19-global-data '!$A$1:$E$764</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Jan# 2021'!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Jan# 2021'!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Jan# 2021'!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Jan# 2021'!$B$2:$B$31</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Dec# 2021'!$B$2:$B$31</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Dec# 2021'!$D$2:$D$31</definedName>
   </definedNames>
@@ -2921,7 +2921,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3040,7 +3040,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -19674,7 +19674,7 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
